--- a/data/clean data/clean data.xlsx
+++ b/data/clean data/clean data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="567">
   <si>
     <t>Proper Name</t>
   </si>
@@ -1715,9 +1715,6 @@
   </si>
   <si>
     <t>Yervoy Ex-US</t>
-  </si>
-  <si>
-    <t>Nan</t>
   </si>
 </sst>
 </file>
@@ -3256,102 +3253,6 @@
       <c r="H13" t="s">
         <v>296</v>
       </c>
-      <c r="I13" t="s">
-        <v>567</v>
-      </c>
-      <c r="J13" t="s">
-        <v>567</v>
-      </c>
-      <c r="K13" t="s">
-        <v>567</v>
-      </c>
-      <c r="L13" t="s">
-        <v>567</v>
-      </c>
-      <c r="M13" t="s">
-        <v>567</v>
-      </c>
-      <c r="N13" t="s">
-        <v>567</v>
-      </c>
-      <c r="O13" t="s">
-        <v>567</v>
-      </c>
-      <c r="P13" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>567</v>
-      </c>
-      <c r="R13" t="s">
-        <v>567</v>
-      </c>
-      <c r="S13" t="s">
-        <v>567</v>
-      </c>
-      <c r="T13" t="s">
-        <v>567</v>
-      </c>
-      <c r="U13" t="s">
-        <v>567</v>
-      </c>
-      <c r="V13" t="s">
-        <v>567</v>
-      </c>
-      <c r="W13" t="s">
-        <v>567</v>
-      </c>
-      <c r="X13" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>567</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
@@ -9472,7 +9373,7 @@
         <v>1007.341691233151</v>
       </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
         <v>66</v>
       </c>
@@ -9561,7 +9462,7 @@
         <v>79.63278148231952</v>
       </c>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
         <v>66</v>
       </c>
@@ -9650,7 +9551,7 @@
         <v>927.7089097508319</v>
       </c>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
         <v>67</v>
       </c>
@@ -9739,7 +9640,7 @@
         <v>1316.959235220332</v>
       </c>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
         <v>67</v>
       </c>
@@ -9828,7 +9729,7 @@
         <v>809.4471357187347</v>
       </c>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
         <v>67</v>
       </c>
@@ -9914,7 +9815,7 @@
         <v>945.3407625341508</v>
       </c>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -10000,7 +9901,7 @@
         <v>564.2871021809108</v>
       </c>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
         <v>68</v>
       </c>
@@ -10086,7 +9987,7 @@
         <v>293.9874793532942</v>
       </c>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
         <v>68</v>
       </c>
@@ -10172,7 +10073,7 @@
         <v>270.2996228276165</v>
       </c>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -10264,7 +10165,7 @@
         <v>134.1998926275163</v>
       </c>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -10356,7 +10257,7 @@
         <v>63.21646992870793</v>
       </c>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -10445,7 +10346,7 @@
         <v>70.9834226988084</v>
       </c>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -10537,7 +10438,7 @@
         <v>357.5731008647237</v>
       </c>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -10629,7 +10530,7 @@
         <v>357.5731008647237</v>
       </c>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -10654,104 +10555,8 @@
       <c r="H94" t="s">
         <v>377</v>
       </c>
-      <c r="I94" t="s">
-        <v>567</v>
-      </c>
-      <c r="J94" t="s">
-        <v>567</v>
-      </c>
-      <c r="K94" t="s">
-        <v>567</v>
-      </c>
-      <c r="L94" t="s">
-        <v>567</v>
-      </c>
-      <c r="M94" t="s">
-        <v>567</v>
-      </c>
-      <c r="N94" t="s">
-        <v>567</v>
-      </c>
-      <c r="O94" t="s">
-        <v>567</v>
-      </c>
-      <c r="P94" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>567</v>
-      </c>
-      <c r="R94" t="s">
-        <v>567</v>
-      </c>
-      <c r="S94" t="s">
-        <v>567</v>
-      </c>
-      <c r="T94" t="s">
-        <v>567</v>
-      </c>
-      <c r="U94" t="s">
-        <v>567</v>
-      </c>
-      <c r="V94" t="s">
-        <v>567</v>
-      </c>
-      <c r="W94" t="s">
-        <v>567</v>
-      </c>
-      <c r="X94" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AC94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AD94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AF94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AI94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AJ94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AK94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM94" t="s">
-        <v>567</v>
-      </c>
-      <c r="AN94" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="95" spans="1:40">
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -10849,7 +10654,7 @@
         <v>10.31089650255761</v>
       </c>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -22852,7 +22657,7 @@
         <v>605.4519406701976</v>
       </c>
     </row>
-    <row r="225" spans="1:40">
+    <row r="225" spans="1:36">
       <c r="A225" t="s">
         <v>114</v>
       </c>
@@ -22932,7 +22737,7 @@
         <v>65.33477649937529</v>
       </c>
     </row>
-    <row r="226" spans="1:40">
+    <row r="226" spans="1:36">
       <c r="A226" t="s">
         <v>114</v>
       </c>
@@ -23012,7 +22817,7 @@
         <v>540.1171641708223</v>
       </c>
     </row>
-    <row r="227" spans="1:40">
+    <row r="227" spans="1:36">
       <c r="A227" t="s">
         <v>115</v>
       </c>
@@ -23122,7 +22927,7 @@
         <v>100.3429978357534</v>
       </c>
     </row>
-    <row r="228" spans="1:40">
+    <row r="228" spans="1:36">
       <c r="A228" t="s">
         <v>115</v>
       </c>
@@ -23229,7 +23034,7 @@
         <v>8.083976090548177</v>
       </c>
     </row>
-    <row r="229" spans="1:40">
+    <row r="229" spans="1:36">
       <c r="A229" t="s">
         <v>115</v>
       </c>
@@ -23339,7 +23144,7 @@
         <v>92.2590217452052</v>
       </c>
     </row>
-    <row r="230" spans="1:40">
+    <row r="230" spans="1:36">
       <c r="A230" t="s">
         <v>116</v>
       </c>
@@ -23437,7 +23242,7 @@
         <v>86.32757148615987</v>
       </c>
     </row>
-    <row r="231" spans="1:40">
+    <row r="231" spans="1:36">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -23462,104 +23267,8 @@
       <c r="H231" t="s">
         <v>514</v>
       </c>
-      <c r="I231" t="s">
-        <v>567</v>
-      </c>
-      <c r="J231" t="s">
-        <v>567</v>
-      </c>
-      <c r="K231" t="s">
-        <v>567</v>
-      </c>
-      <c r="L231" t="s">
-        <v>567</v>
-      </c>
-      <c r="M231" t="s">
-        <v>567</v>
-      </c>
-      <c r="N231" t="s">
-        <v>567</v>
-      </c>
-      <c r="O231" t="s">
-        <v>567</v>
-      </c>
-      <c r="P231" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>567</v>
-      </c>
-      <c r="R231" t="s">
-        <v>567</v>
-      </c>
-      <c r="S231" t="s">
-        <v>567</v>
-      </c>
-      <c r="T231" t="s">
-        <v>567</v>
-      </c>
-      <c r="U231" t="s">
-        <v>567</v>
-      </c>
-      <c r="V231" t="s">
-        <v>567</v>
-      </c>
-      <c r="W231" t="s">
-        <v>567</v>
-      </c>
-      <c r="X231" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y231" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AC231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AD231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AE231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AF231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AI231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AJ231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AK231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM231" t="s">
-        <v>567</v>
-      </c>
-      <c r="AN231" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="232" spans="1:40">
+    </row>
+    <row r="232" spans="1:36">
       <c r="A232" t="s">
         <v>116</v>
       </c>
@@ -23584,104 +23293,8 @@
       <c r="H232" t="s">
         <v>515</v>
       </c>
-      <c r="I232" t="s">
-        <v>567</v>
-      </c>
-      <c r="J232" t="s">
-        <v>567</v>
-      </c>
-      <c r="K232" t="s">
-        <v>567</v>
-      </c>
-      <c r="L232" t="s">
-        <v>567</v>
-      </c>
-      <c r="M232" t="s">
-        <v>567</v>
-      </c>
-      <c r="N232" t="s">
-        <v>567</v>
-      </c>
-      <c r="O232" t="s">
-        <v>567</v>
-      </c>
-      <c r="P232" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>567</v>
-      </c>
-      <c r="R232" t="s">
-        <v>567</v>
-      </c>
-      <c r="S232" t="s">
-        <v>567</v>
-      </c>
-      <c r="T232" t="s">
-        <v>567</v>
-      </c>
-      <c r="U232" t="s">
-        <v>567</v>
-      </c>
-      <c r="V232" t="s">
-        <v>567</v>
-      </c>
-      <c r="W232" t="s">
-        <v>567</v>
-      </c>
-      <c r="X232" t="s">
-        <v>567</v>
-      </c>
-      <c r="Y232" t="s">
-        <v>567</v>
-      </c>
-      <c r="Z232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AA232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AB232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AC232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AD232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AE232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AF232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AG232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AI232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AJ232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AK232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AL232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AM232" t="s">
-        <v>567</v>
-      </c>
-      <c r="AN232" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="233" spans="1:40">
+    </row>
+    <row r="233" spans="1:36">
       <c r="A233" t="s">
         <v>117</v>
       </c>
@@ -23773,7 +23386,7 @@
         <v>587.150735033586</v>
       </c>
     </row>
-    <row r="234" spans="1:40">
+    <row r="234" spans="1:36">
       <c r="A234" t="s">
         <v>117</v>
       </c>
@@ -23865,7 +23478,7 @@
         <v>568.3174381157251</v>
       </c>
     </row>
-    <row r="235" spans="1:40">
+    <row r="235" spans="1:36">
       <c r="A235" t="s">
         <v>117</v>
       </c>
@@ -23957,7 +23570,7 @@
         <v>18.83329691786093</v>
       </c>
     </row>
-    <row r="236" spans="1:40">
+    <row r="236" spans="1:36">
       <c r="A236" t="s">
         <v>118</v>
       </c>
@@ -24055,7 +23668,7 @@
         <v>2401.063561157789</v>
       </c>
     </row>
-    <row r="237" spans="1:40">
+    <row r="237" spans="1:36">
       <c r="A237" t="s">
         <v>118</v>
       </c>
@@ -24150,7 +23763,7 @@
         <v>16.90343687606352</v>
       </c>
     </row>
-    <row r="238" spans="1:40">
+    <row r="238" spans="1:36">
       <c r="A238" t="s">
         <v>118</v>
       </c>
@@ -24245,7 +23858,7 @@
         <v>1672.664922329468</v>
       </c>
     </row>
-    <row r="239" spans="1:40">
+    <row r="239" spans="1:36">
       <c r="A239" t="s">
         <v>119</v>
       </c>
@@ -24331,7 +23944,7 @@
         <v>3161.31175404021</v>
       </c>
     </row>
-    <row r="240" spans="1:40">
+    <row r="240" spans="1:36">
       <c r="A240" t="s">
         <v>119</v>
       </c>

--- a/data/clean data/clean data.xlsx
+++ b/data/clean data/clean data.xlsx
@@ -172,7 +172,7 @@
     <t>Cimzia</t>
   </si>
   <si>
-    <t>Cabometyx/Cometriq</t>
+    <t>Cabometyx_Cometriq</t>
   </si>
   <si>
     <t>Cosentyx</t>
@@ -235,7 +235,7 @@
     <t>Inlyta</t>
   </si>
   <si>
-    <t>Invega Sustenna/Xeplion/Trinza</t>
+    <t>Invega Sustenna_Xeplion_Trinza</t>
   </si>
   <si>
     <t>Invokana</t>
@@ -313,7 +313,7 @@
     <t>Perjeta</t>
   </si>
   <si>
-    <t>Pomalyst/Imnovid</t>
+    <t>Pomalyst_Imnovid</t>
   </si>
   <si>
     <t>Pradaxa</t>
@@ -322,7 +322,7 @@
     <t>Praluent</t>
   </si>
   <si>
-    <t>Prolia/Xgeva</t>
+    <t>Prolia_Xgeva</t>
   </si>
   <si>
     <t>Promacta</t>
@@ -379,7 +379,7 @@
     <t>Trikafta</t>
   </si>
   <si>
-    <t>Trintellix/Brintellix</t>
+    <t>Trintellix_Brintellix</t>
   </si>
   <si>
     <t>Trulicity</t>
@@ -403,7 +403,7 @@
     <t>Vraylar</t>
   </si>
   <si>
-    <t>Vyndaqel/Vyndamax</t>
+    <t>Vyndaqel_Vyndamax</t>
   </si>
   <si>
     <t>Xarelto</t>
@@ -973,13 +973,13 @@
     <t>Cimzia Ex-US</t>
   </si>
   <si>
-    <t>Cabometyx/Cometriq WW</t>
-  </si>
-  <si>
-    <t>Cabometyx/Cometriq US</t>
-  </si>
-  <si>
-    <t>Cabometyx/Cometriq Ex-US</t>
+    <t>Cabometyx_Cometriq WW</t>
+  </si>
+  <si>
+    <t>Cabometyx_Cometriq US</t>
+  </si>
+  <si>
+    <t>Cabometyx_Cometriq Ex-US</t>
   </si>
   <si>
     <t>Cosentyx WW</t>
@@ -1162,13 +1162,13 @@
     <t>Inlyta Ex-US</t>
   </si>
   <si>
-    <t>Invega Sustenna/Xeplion/Trinza WW</t>
-  </si>
-  <si>
-    <t>Invega Sustenna/Xeplion/Trinza US</t>
-  </si>
-  <si>
-    <t>Invega Sustenna/Xeplion/Trinza Ex-US</t>
+    <t>Invega Sustenna_Xeplion_Trinza WW</t>
+  </si>
+  <si>
+    <t>Invega Sustenna_Xeplion_Trinza US</t>
+  </si>
+  <si>
+    <t>Invega Sustenna_Xeplion_Trinza Ex-US</t>
   </si>
   <si>
     <t>Invokana WW</t>
@@ -1396,13 +1396,13 @@
     <t>Perjeta Ex-US</t>
   </si>
   <si>
-    <t>Pomalyst/Imnovid WW</t>
-  </si>
-  <si>
-    <t>Pomalyst/Imnovid US</t>
-  </si>
-  <si>
-    <t>Pomalyst/Imnovid Ex-US</t>
+    <t>Pomalyst_Imnovid WW</t>
+  </si>
+  <si>
+    <t>Pomalyst_Imnovid US</t>
+  </si>
+  <si>
+    <t>Pomalyst_Imnovid Ex-US</t>
   </si>
   <si>
     <t>Pradaxa WW</t>
@@ -1423,13 +1423,13 @@
     <t>Praluent Ex-US</t>
   </si>
   <si>
-    <t>Prolia/Xgeva WW</t>
-  </si>
-  <si>
-    <t>Prolia/Xgeva US</t>
-  </si>
-  <si>
-    <t>Prolia/Xgeva Ex-US</t>
+    <t>Prolia_Xgeva WW</t>
+  </si>
+  <si>
+    <t>Prolia_Xgeva US</t>
+  </si>
+  <si>
+    <t>Prolia_Xgeva Ex-US</t>
   </si>
   <si>
     <t>Promacta WW</t>
@@ -1594,13 +1594,13 @@
     <t>Trikafta Ex-US</t>
   </si>
   <si>
-    <t>Trintellix/Brintellix WW</t>
-  </si>
-  <si>
-    <t>Trintellix/Brintellix US</t>
-  </si>
-  <si>
-    <t>Trintellix/Brintellix Ex-US</t>
+    <t>Trintellix_Brintellix WW</t>
+  </si>
+  <si>
+    <t>Trintellix_Brintellix US</t>
+  </si>
+  <si>
+    <t>Trintellix_Brintellix Ex-US</t>
   </si>
   <si>
     <t>Trulicity WW</t>
@@ -1666,13 +1666,13 @@
     <t>Vraylar Ex-US</t>
   </si>
   <si>
-    <t>Vyndaqel/Vyndamax WW</t>
-  </si>
-  <si>
-    <t>Vyndaqel/Vyndamax US</t>
-  </si>
-  <si>
-    <t>Vyndaqel/Vyndamax Ex-US</t>
+    <t>Vyndaqel_Vyndamax WW</t>
+  </si>
+  <si>
+    <t>Vyndaqel_Vyndamax US</t>
+  </si>
+  <si>
+    <t>Vyndaqel_Vyndamax Ex-US</t>
   </si>
   <si>
     <t>Xarelto WW</t>
@@ -7261,67 +7261,67 @@
         <v>337</v>
       </c>
       <c r="I53">
-        <v>0.1053549332117515</v>
+        <v>1.543776635232449</v>
       </c>
       <c r="J53">
-        <v>0.4792046605083943</v>
+        <v>6.098182868164356</v>
       </c>
       <c r="K53">
-        <v>0.9409115447791899</v>
+        <v>11.47129448140096</v>
       </c>
       <c r="L53">
-        <v>1.272684281468773</v>
+        <v>15.76880970526454</v>
       </c>
       <c r="M53">
-        <v>1.579406997367524</v>
+        <v>19.02084793976713</v>
       </c>
       <c r="N53">
-        <v>1.888017162690981</v>
+        <v>22.02549472502801</v>
       </c>
       <c r="O53">
-        <v>2.098536476722255</v>
+        <v>24.49501464097899</v>
       </c>
       <c r="P53">
-        <v>2.008036627495805</v>
+        <v>28.09771384587408</v>
       </c>
       <c r="Q53">
-        <v>1.983163749106489</v>
+        <v>35.21103499027677</v>
       </c>
       <c r="R53">
-        <v>2.202314356169988</v>
+        <v>40.41076915772037</v>
       </c>
       <c r="S53">
-        <v>2.179655705438787</v>
+        <v>39.95997679272215</v>
       </c>
       <c r="T53">
-        <v>2.099925832613994</v>
+        <v>38.47586163728279</v>
       </c>
       <c r="U53">
-        <v>1.974654136995513</v>
+        <v>36.14819635071219</v>
       </c>
       <c r="V53">
-        <v>1.795939981810384</v>
+        <v>32.87663894161927</v>
       </c>
       <c r="W53">
-        <v>1.5817590341595</v>
+        <v>28.93984874645751</v>
       </c>
       <c r="X53">
-        <v>1.36820948768072</v>
+        <v>25.00955595369539</v>
       </c>
       <c r="Y53">
-        <v>1.14428318296829</v>
+        <v>20.91639807280468</v>
       </c>
       <c r="Z53">
-        <v>0.900941263759405</v>
+        <v>16.46834139790871</v>
       </c>
       <c r="AA53">
-        <v>0.6785697573224587</v>
+        <v>12.40360373688751</v>
       </c>
       <c r="AB53">
-        <v>0.462137582006622</v>
+        <v>8.447431347002322</v>
       </c>
       <c r="AC53">
-        <v>0.3033938011775192</v>
+        <v>5.54574742747592</v>
       </c>
       <c r="AN53">
         <v>0.6164383561643836</v>
@@ -7356,67 +7356,67 @@
         <v>338</v>
       </c>
       <c r="I54">
-        <v>0.07617389055957571</v>
+        <v>1.116183826193245</v>
       </c>
       <c r="J54">
-        <v>0.3492232796160187</v>
+        <v>4.441580987701713</v>
       </c>
       <c r="K54">
-        <v>0.6716455163282803</v>
+        <v>8.182080983207264</v>
       </c>
       <c r="L54">
-        <v>0.8664137223939482</v>
+        <v>10.73915782703981</v>
       </c>
       <c r="M54">
-        <v>1.057979158099271</v>
+        <v>12.73967126286382</v>
       </c>
       <c r="N54">
-        <v>1.289105838527494</v>
+        <v>15.03598769685829</v>
       </c>
       <c r="O54">
-        <v>1.443178399936445</v>
+        <v>16.84414257000352</v>
       </c>
       <c r="P54">
-        <v>1.364850509231943</v>
+        <v>19.05955102550699</v>
       </c>
       <c r="Q54">
-        <v>1.36041541397431</v>
+        <v>24.17357345702908</v>
       </c>
       <c r="R54">
-        <v>1.546350441236084</v>
+        <v>28.37446289547578</v>
       </c>
       <c r="S54">
-        <v>1.517517210976123</v>
+        <v>27.82088583157902</v>
       </c>
       <c r="T54">
-        <v>1.456384017750636</v>
+        <v>26.68462855268892</v>
       </c>
       <c r="U54">
-        <v>1.370460280747576</v>
+        <v>25.0877692407904</v>
       </c>
       <c r="V54">
-        <v>1.24701274918049</v>
+        <v>22.82792761764548</v>
       </c>
       <c r="W54">
-        <v>1.10725731488581</v>
+        <v>20.2580337177148</v>
       </c>
       <c r="X54">
-        <v>1.011828266701338</v>
+        <v>18.49524936016443</v>
       </c>
       <c r="Y54">
-        <v>0.880180482692016</v>
+        <v>16.08885425034666</v>
       </c>
       <c r="Z54">
-        <v>0.6837688898732135</v>
+        <v>12.49863888874806</v>
       </c>
       <c r="AA54">
-        <v>0.4897280855156573</v>
+        <v>8.951759264264117</v>
       </c>
       <c r="AB54">
-        <v>0.3050420324996027</v>
+        <v>5.575875513741535</v>
       </c>
       <c r="AC54">
-        <v>0.1889863448198048</v>
+        <v>3.454488956415005</v>
       </c>
       <c r="AN54">
         <v>0.6164383561643836</v>
@@ -7451,67 +7451,67 @@
         <v>339</v>
       </c>
       <c r="I55">
-        <v>0.02918104265217578</v>
+        <v>0.4275928090392035</v>
       </c>
       <c r="J55">
-        <v>0.1299813808923756</v>
+        <v>1.656601880462644</v>
       </c>
       <c r="K55">
-        <v>0.2692660284509095</v>
+        <v>3.289213498193693</v>
       </c>
       <c r="L55">
-        <v>0.4062705590748246</v>
+        <v>5.029651878224733</v>
       </c>
       <c r="M55">
-        <v>0.5214278392682536</v>
+        <v>6.281176676903311</v>
       </c>
       <c r="N55">
-        <v>0.598911324163486</v>
+        <v>6.989507028169719</v>
       </c>
       <c r="O55">
-        <v>0.6553580767858095</v>
+        <v>7.650872070975472</v>
       </c>
       <c r="P55">
-        <v>0.6431861182638619</v>
+        <v>9.038162820367083</v>
       </c>
       <c r="Q55">
-        <v>0.6227483351321795</v>
+        <v>11.03746153324768</v>
       </c>
       <c r="R55">
-        <v>0.655963914933904</v>
+        <v>12.03630626224459</v>
       </c>
       <c r="S55">
-        <v>0.6621384944626639</v>
+        <v>12.13909096114313</v>
       </c>
       <c r="T55">
-        <v>0.6435418148633583</v>
+        <v>11.79123308459387</v>
       </c>
       <c r="U55">
-        <v>0.6041938562479369</v>
+        <v>11.0604271099218</v>
       </c>
       <c r="V55">
-        <v>0.5489272326298946</v>
+        <v>10.04871132397379</v>
       </c>
       <c r="W55">
-        <v>0.4745017192736899</v>
+        <v>8.681815028742713</v>
       </c>
       <c r="X55">
-        <v>0.356381220979382</v>
+        <v>6.514306593530963</v>
       </c>
       <c r="Y55">
-        <v>0.2641027002762736</v>
+        <v>4.827543822458017</v>
       </c>
       <c r="Z55">
-        <v>0.2171723738861915</v>
+        <v>3.969702509160649</v>
       </c>
       <c r="AA55">
-        <v>0.1888416718068015</v>
+        <v>3.451844472623396</v>
       </c>
       <c r="AB55">
-        <v>0.1570955495070193</v>
+        <v>2.871555833260786</v>
       </c>
       <c r="AC55">
-        <v>0.1144074563577144</v>
+        <v>2.091258471060915</v>
       </c>
       <c r="AN55">
         <v>0.6164383561643836</v>
@@ -9007,73 +9007,73 @@
         <v>355</v>
       </c>
       <c r="I71">
-        <v>0.03641140982904701</v>
+        <v>0.3468463512931427</v>
       </c>
       <c r="J71">
-        <v>0.1014446602656152</v>
+        <v>1.132704083378876</v>
       </c>
       <c r="K71">
-        <v>0.113760693654878</v>
+        <v>1.658009997523121</v>
       </c>
       <c r="L71">
-        <v>0.176800858249398</v>
+        <v>2.096724917376689</v>
       </c>
       <c r="M71">
-        <v>0.2293882474293591</v>
+        <v>2.881754965632149</v>
       </c>
       <c r="N71">
-        <v>0.2353124614662164</v>
+        <v>2.867229007583833</v>
       </c>
       <c r="O71">
-        <v>0.1204894347403526</v>
+        <v>1.433512597090133</v>
       </c>
       <c r="P71">
-        <v>0.3180697229967438</v>
+        <v>3.626687400423816</v>
       </c>
       <c r="Q71">
-        <v>0.2805908460240676</v>
+        <v>3.379895878061367</v>
       </c>
       <c r="R71">
-        <v>0.2339014885252288</v>
+        <v>4.000447390135247</v>
       </c>
       <c r="S71">
-        <v>0.2618874552188812</v>
+        <v>4.801914332256297</v>
       </c>
       <c r="T71">
-        <v>0.2266597604367731</v>
+        <v>4.155567300485678</v>
       </c>
       <c r="U71">
-        <v>0.1978257545333788</v>
+        <v>3.626771209981159</v>
       </c>
       <c r="V71">
-        <v>0.1758467610047608</v>
+        <v>3.219199861467689</v>
       </c>
       <c r="W71">
-        <v>0.1329069585320611</v>
+        <v>2.433006744514178</v>
       </c>
       <c r="X71">
-        <v>0.09426053873664174</v>
+        <v>1.72554190556145</v>
       </c>
       <c r="Y71">
-        <v>0.07306627323847702</v>
+        <v>1.335644345638381</v>
       </c>
       <c r="Z71">
-        <v>0.045375538749403</v>
+        <v>0.8294212878218873</v>
       </c>
       <c r="AA71">
-        <v>0.03493496352342737</v>
+        <v>0.6385775956432695</v>
       </c>
       <c r="AB71">
-        <v>0.02803029612513637</v>
+        <v>0.5123669040832125</v>
       </c>
       <c r="AC71">
-        <v>0.02612595827125827</v>
+        <v>0.4775574362786607</v>
       </c>
       <c r="AD71">
-        <v>0.02280489133858884</v>
+        <v>0.416851520973719</v>
       </c>
       <c r="AE71">
-        <v>0.02070701219525339</v>
+        <v>0.3785043041975245</v>
       </c>
       <c r="AN71">
         <v>0.0273972602739726</v>
@@ -9108,73 +9108,73 @@
         <v>356</v>
       </c>
       <c r="I72">
-        <v>0.01820570491452351</v>
+        <v>0.1734231756465714</v>
       </c>
       <c r="J72">
-        <v>0.05072233013280761</v>
+        <v>0.5663520416894381</v>
       </c>
       <c r="K72">
-        <v>0.05688034682743898</v>
+        <v>0.8290049987615605</v>
       </c>
       <c r="L72">
-        <v>0.088400429124699</v>
+        <v>1.048362458688344</v>
       </c>
       <c r="M72">
-        <v>0.1146941237146796</v>
+        <v>1.440877482816075</v>
       </c>
       <c r="N72">
-        <v>0.1176562307331082</v>
+        <v>1.433614503791917</v>
       </c>
       <c r="O72">
-        <v>0.05212967949950398</v>
+        <v>0.6203238420095469</v>
       </c>
       <c r="P72">
-        <v>0.2725407190090228</v>
+        <v>3.106948251115419</v>
       </c>
       <c r="Q72">
-        <v>0.238125665026389</v>
+        <v>2.868310069425223</v>
       </c>
       <c r="R72">
-        <v>0.1888353493677454</v>
+        <v>3.228190581059153</v>
       </c>
       <c r="S72">
-        <v>0.2025554447295493</v>
+        <v>3.713805881869601</v>
       </c>
       <c r="T72">
-        <v>0.1478666192227108</v>
+        <v>2.710999657343104</v>
       </c>
       <c r="U72">
-        <v>0.1101807479713773</v>
+        <v>2.019961281478936</v>
       </c>
       <c r="V72">
-        <v>0.0928390712391713</v>
+        <v>1.699594237468697</v>
       </c>
       <c r="W72">
-        <v>0.07840025234977498</v>
+        <v>1.435202075537692</v>
       </c>
       <c r="X72">
-        <v>0.0314480472068009</v>
+        <v>0.5756907824919462</v>
       </c>
       <c r="Y72">
-        <v>0.02266873178060299</v>
+        <v>0.4143830892859777</v>
       </c>
       <c r="Z72">
-        <v>0.01687790447578411</v>
+        <v>0.3085118910290368</v>
       </c>
       <c r="AA72">
-        <v>0.01261746200954715</v>
+        <v>0.2306350927709927</v>
       </c>
       <c r="AB72">
-        <v>0.00965183197230415</v>
+        <v>0.1764262226950264</v>
       </c>
       <c r="AC72">
-        <v>0.007423336297303534</v>
+        <v>0.1356914611118631</v>
       </c>
       <c r="AD72">
-        <v>0.005750221495362556</v>
+        <v>0.105108528722592</v>
       </c>
       <c r="AE72">
-        <v>0.005202766883229495</v>
+        <v>0.09510158396922724</v>
       </c>
       <c r="AN72">
         <v>0.0273972602739726</v>
@@ -9209,73 +9209,73 @@
         <v>357</v>
       </c>
       <c r="I73">
-        <v>0.01820570491452351</v>
+        <v>0.1734231756465714</v>
       </c>
       <c r="J73">
-        <v>0.05072233013280761</v>
+        <v>0.5663520416894381</v>
       </c>
       <c r="K73">
-        <v>0.05688034682743898</v>
+        <v>0.8290049987615605</v>
       </c>
       <c r="L73">
-        <v>0.088400429124699</v>
+        <v>1.048362458688344</v>
       </c>
       <c r="M73">
-        <v>0.1146941237146796</v>
+        <v>1.440877482816075</v>
       </c>
       <c r="N73">
-        <v>0.1176562307331082</v>
+        <v>1.433614503791917</v>
       </c>
       <c r="O73">
-        <v>0.0683597552408486</v>
+        <v>0.8131887550805861</v>
       </c>
       <c r="P73">
-        <v>0.04552900398772096</v>
+        <v>0.519739149308396</v>
       </c>
       <c r="Q73">
-        <v>0.04246518099767872</v>
+        <v>0.5115858086361431</v>
       </c>
       <c r="R73">
-        <v>0.04506613915748335</v>
+        <v>0.7722568090760935</v>
       </c>
       <c r="S73">
-        <v>0.05933201048933191</v>
+        <v>1.088108450386696</v>
       </c>
       <c r="T73">
-        <v>0.07879314121406231</v>
+        <v>1.444567643142574</v>
       </c>
       <c r="U73">
-        <v>0.0876450065620015</v>
+        <v>1.606809928502223</v>
       </c>
       <c r="V73">
-        <v>0.0830076897655895</v>
+        <v>1.519605623998992</v>
       </c>
       <c r="W73">
-        <v>0.05450670618228608</v>
+        <v>0.9978046689764859</v>
       </c>
       <c r="X73">
-        <v>0.06281249152984085</v>
+        <v>1.149851123069505</v>
       </c>
       <c r="Y73">
-        <v>0.05039754145787403</v>
+        <v>0.9212612563524033</v>
       </c>
       <c r="Z73">
-        <v>0.0284976342736189</v>
+        <v>0.5209093967928506</v>
       </c>
       <c r="AA73">
-        <v>0.02231750151388022</v>
+        <v>0.4079425028722768</v>
       </c>
       <c r="AB73">
-        <v>0.01837846415283221</v>
+        <v>0.3359406813881861</v>
       </c>
       <c r="AC73">
-        <v>0.01870262197395474</v>
+        <v>0.3418659751667976</v>
       </c>
       <c r="AD73">
-        <v>0.01705466984322629</v>
+        <v>0.311742992251127</v>
       </c>
       <c r="AE73">
-        <v>0.0155042453120239</v>
+        <v>0.2834027202282973</v>
       </c>
       <c r="AN73">
         <v>0.0273972602739726</v>
@@ -13828,70 +13828,70 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <v>0.08106357154035494</v>
+        <v>0.516500735759003</v>
       </c>
       <c r="K119">
-        <v>0.1857671112928823</v>
+        <v>1.720149030861361</v>
       </c>
       <c r="L119">
-        <v>0.330103266304808</v>
+        <v>3.636446259534496</v>
       </c>
       <c r="M119">
-        <v>0.5165778226769062</v>
+        <v>7.369985646213165</v>
       </c>
       <c r="N119">
-        <v>0.7558451912540558</v>
+        <v>9.181193448827084</v>
       </c>
       <c r="O119">
-        <v>0.7780483875749734</v>
+        <v>9.687469798971179</v>
       </c>
       <c r="P119">
-        <v>0.8969050282654993</v>
+        <v>10.97026990339138</v>
       </c>
       <c r="Q119">
-        <v>0.8677143334632647</v>
+        <v>10.35470782556083</v>
       </c>
       <c r="R119">
-        <v>0.8160281991882391</v>
+        <v>9.36827700286284</v>
       </c>
       <c r="S119">
-        <v>0.7484156571123735</v>
+        <v>8.942187188003713</v>
       </c>
       <c r="T119">
-        <v>0.5619988167293722</v>
+        <v>9.079123268177758</v>
       </c>
       <c r="U119">
-        <v>0.5241573909834393</v>
+        <v>9.529360104860375</v>
       </c>
       <c r="V119">
-        <v>0.1740227179866955</v>
+        <v>3.192682994078432</v>
       </c>
       <c r="W119">
-        <v>0.065817293885162</v>
+        <v>1.206638979563697</v>
       </c>
       <c r="X119">
-        <v>0.04037279630525899</v>
+        <v>0.7393221689713155</v>
       </c>
       <c r="Y119">
-        <v>0.02658291269264463</v>
+        <v>0.486629192213695</v>
       </c>
       <c r="Z119">
-        <v>0.02335100228973315</v>
+        <v>0.4274655495060611</v>
       </c>
       <c r="AA119">
-        <v>0.01963043278438109</v>
+        <v>0.3589267465126833</v>
       </c>
       <c r="AB119">
-        <v>0.01389750750200356</v>
+        <v>0.2540330955294231</v>
       </c>
       <c r="AC119">
-        <v>0.008658335442599681</v>
+        <v>0.1582660598886972</v>
       </c>
       <c r="AD119">
-        <v>0.005216597139497535</v>
+        <v>0.095354387776761</v>
       </c>
       <c r="AE119">
-        <v>0.004351673307967995</v>
+        <v>0.07954441046327929</v>
       </c>
       <c r="AN119">
         <v>0.1753424657534247</v>
@@ -13929,70 +13929,70 @@
         <v>0</v>
       </c>
       <c r="J120">
-        <v>0.07990552051834987</v>
+        <v>0.5091221538195888</v>
       </c>
       <c r="K120">
-        <v>0.1855432657313953</v>
+        <v>1.718722787297113</v>
       </c>
       <c r="L120">
-        <v>0.330103266304808</v>
+        <v>3.636446259534496</v>
       </c>
       <c r="M120">
-        <v>0.5165778226769062</v>
+        <v>7.369985646213165</v>
       </c>
       <c r="N120">
-        <v>0.7558451912540558</v>
+        <v>9.181193448827084</v>
       </c>
       <c r="O120">
-        <v>0.7780483875749734</v>
+        <v>9.687469798971179</v>
       </c>
       <c r="P120">
-        <v>0.8969050282654993</v>
+        <v>10.97026990339138</v>
       </c>
       <c r="Q120">
-        <v>0.8677143334632647</v>
+        <v>10.35470782556083</v>
       </c>
       <c r="R120">
-        <v>0.8160281991882391</v>
+        <v>9.36827700286284</v>
       </c>
       <c r="S120">
-        <v>0.7413210038700825</v>
+        <v>8.856591433942997</v>
       </c>
       <c r="T120">
-        <v>0.5461527194802234</v>
+        <v>8.812771928412735</v>
       </c>
       <c r="U120">
-        <v>0.5033595964035811</v>
+        <v>9.150591161699509</v>
       </c>
       <c r="V120">
-        <v>0.1497710249036401</v>
+        <v>2.747978570497068</v>
       </c>
       <c r="W120">
-        <v>0.0409206923967782</v>
+        <v>0.7502056010209185</v>
       </c>
       <c r="X120">
-        <v>0.01856381684949843</v>
+        <v>0.3399757663750808</v>
       </c>
       <c r="Y120">
-        <v>0.00968748720673364</v>
+        <v>0.1773400126803147</v>
       </c>
       <c r="Z120">
-        <v>0.007582491507465253</v>
+        <v>0.1388057719598946</v>
       </c>
       <c r="AA120">
-        <v>0.005599586045325245</v>
+        <v>0.1023874936491856</v>
       </c>
       <c r="AB120">
-        <v>0.003582241376144193</v>
+        <v>0.06547993340419475</v>
       </c>
       <c r="AC120">
-        <v>0.00191242191314368</v>
+        <v>0.03495723664722984</v>
       </c>
       <c r="AD120">
-        <v>0.000267599900271248</v>
+        <v>0.004891469281054155</v>
       </c>
       <c r="AE120">
-        <v>1.005174561839938E-09</v>
+        <v>1.837362602285471E-08</v>
       </c>
       <c r="AN120">
         <v>0.1753424657534247</v>
@@ -14030,10 +14030,10 @@
         <v>0</v>
       </c>
       <c r="J121">
-        <v>0.001158051022005071</v>
+        <v>0.007378581939414291</v>
       </c>
       <c r="K121">
-        <v>0.0002238455614869361</v>
+        <v>0.001426243564248004</v>
       </c>
       <c r="L121">
         <v>0</v>
@@ -14057,43 +14057,43 @@
         <v>0</v>
       </c>
       <c r="S121">
-        <v>0.007094653242290929</v>
+        <v>0.08559575406071636</v>
       </c>
       <c r="T121">
-        <v>0.01584609724914892</v>
+        <v>0.2663513397650228</v>
       </c>
       <c r="U121">
-        <v>0.02079779457985815</v>
+        <v>0.378768943160865</v>
       </c>
       <c r="V121">
-        <v>0.02425169308305532</v>
+        <v>0.4447044235813646</v>
       </c>
       <c r="W121">
-        <v>0.0248966014883838</v>
+        <v>0.4564333785427781</v>
       </c>
       <c r="X121">
-        <v>0.02180897945576056</v>
+        <v>0.3993464025962348</v>
       </c>
       <c r="Y121">
-        <v>0.01689542548591099</v>
+        <v>0.3092891795333803</v>
       </c>
       <c r="Z121">
-        <v>0.01576851078226789</v>
+        <v>0.2886597775461665</v>
       </c>
       <c r="AA121">
-        <v>0.01403084673905585</v>
+        <v>0.2565392528634977</v>
       </c>
       <c r="AB121">
-        <v>0.01031526612585936</v>
+        <v>0.1885531621252284</v>
       </c>
       <c r="AC121">
-        <v>0.006745913529456</v>
+        <v>0.1233088232414674</v>
       </c>
       <c r="AD121">
-        <v>0.004948997239226287</v>
+        <v>0.09046291849570687</v>
       </c>
       <c r="AE121">
-        <v>0.004351672302793434</v>
+        <v>0.07954439208965328</v>
       </c>
       <c r="AN121">
         <v>0.1753424657534247</v>
@@ -14128,76 +14128,76 @@
         <v>406</v>
       </c>
       <c r="I122">
-        <v>0.01890936077310701</v>
+        <v>0.2346085475910706</v>
       </c>
       <c r="J122">
-        <v>0.1233191930329547</v>
+        <v>1.475263212592748</v>
       </c>
       <c r="K122">
-        <v>0.1926932660445738</v>
+        <v>2.410443970634327</v>
       </c>
       <c r="L122">
-        <v>0.2744042164859318</v>
+        <v>3.324115836503998</v>
       </c>
       <c r="M122">
-        <v>0.4744647861120185</v>
+        <v>5.592477977853663</v>
       </c>
       <c r="N122">
-        <v>0.7170422463032452</v>
+        <v>8.234743434405638</v>
       </c>
       <c r="O122">
-        <v>0.7123968655455638</v>
+        <v>9.087809593857658</v>
       </c>
       <c r="P122">
-        <v>0.7374311610882986</v>
+        <v>12.84567734836627</v>
       </c>
       <c r="Q122">
-        <v>0.8225170366730793</v>
+        <v>15.09874031973627</v>
       </c>
       <c r="R122">
-        <v>0.8098687629995777</v>
+        <v>14.84745361107334</v>
       </c>
       <c r="S122">
-        <v>0.7964464181679775</v>
+        <v>14.59871501079805</v>
       </c>
       <c r="T122">
-        <v>0.7134176924504985</v>
+        <v>13.05988848559115</v>
       </c>
       <c r="U122">
-        <v>0.4425522902781321</v>
+        <v>8.101402055537612</v>
       </c>
       <c r="V122">
-        <v>0.2954145645115372</v>
+        <v>5.407207403189728</v>
       </c>
       <c r="W122">
-        <v>0.1832755289581412</v>
+        <v>3.35010072484702</v>
       </c>
       <c r="X122">
-        <v>0.125365604405084</v>
+        <v>2.291562897544706</v>
       </c>
       <c r="Y122">
-        <v>0.0940334093986675</v>
+        <v>1.718840451734619</v>
       </c>
       <c r="Z122">
-        <v>0.07032514121099208</v>
+        <v>1.285476069201373</v>
       </c>
       <c r="AA122">
-        <v>0.03062892702807439</v>
+        <v>0.5598673823032527</v>
       </c>
       <c r="AB122">
-        <v>0.0169720970388626</v>
+        <v>0.3102336406572509</v>
       </c>
       <c r="AC122">
-        <v>0.01195138746502059</v>
+        <v>0.2184598895286099</v>
       </c>
       <c r="AD122">
-        <v>0.008676865767806855</v>
+        <v>0.1586047764443722</v>
       </c>
       <c r="AE122">
-        <v>0.006611837702307613</v>
+        <v>0.1208580458339889</v>
       </c>
       <c r="AF122">
-        <v>0.005234298803733916</v>
+        <v>0.0956779572054044</v>
       </c>
       <c r="AN122">
         <v>0.8794520547945206</v>
@@ -14336,76 +14336,76 @@
         <v>408</v>
       </c>
       <c r="I124">
-        <v>-14.58234087566767</v>
+        <v>-14.36664168884971</v>
       </c>
       <c r="J124">
-        <v>-90.04620430706161</v>
+        <v>-88.69426028750183</v>
       </c>
       <c r="K124">
-        <v>-136.3168193123911</v>
+        <v>-134.0990686078013</v>
       </c>
       <c r="L124">
-        <v>-185.3903855048277</v>
+        <v>-182.3406738848097</v>
       </c>
       <c r="M124">
-        <v>-279.5005209281189</v>
+        <v>-274.3825077363772</v>
       </c>
       <c r="N124">
-        <v>-430.6476005384217</v>
+        <v>-423.1298993503192</v>
       </c>
       <c r="O124">
-        <v>-434.3759552088364</v>
+        <v>-426.0005424805244</v>
       </c>
       <c r="P124">
-        <v>-485.2995526198296</v>
+        <v>-473.1913064325516</v>
       </c>
       <c r="Q124">
-        <v>-530.5227674035714</v>
+        <v>-516.2465441205082</v>
       </c>
       <c r="R124">
-        <v>-534.462381612283</v>
+        <v>-520.4247967642092</v>
       </c>
       <c r="S124">
-        <v>-534.030370036844</v>
+        <v>-520.2281014442141</v>
       </c>
       <c r="T124">
-        <v>-475.3748510600177</v>
+        <v>-463.028380266877</v>
       </c>
       <c r="U124">
-        <v>-261.3326425984429</v>
+        <v>-253.6737928331835</v>
       </c>
       <c r="V124">
-        <v>-164.0741953609904</v>
+        <v>-158.9624025223122</v>
       </c>
       <c r="W124">
-        <v>-82.19401089293181</v>
+        <v>-79.02718569704295</v>
       </c>
       <c r="X124">
-        <v>-42.90282922191794</v>
+        <v>-40.73663192877832</v>
       </c>
       <c r="Y124">
-        <v>-26.16804934779691</v>
+        <v>-24.54324230546096</v>
       </c>
       <c r="Z124">
-        <v>-17.14986560871298</v>
+        <v>-15.9347146807226</v>
       </c>
       <c r="AA124">
-        <v>-9.871724434804566</v>
+        <v>-9.342485979529389</v>
       </c>
       <c r="AB124">
-        <v>-2.164997938412109</v>
+        <v>-1.871736394793721</v>
       </c>
       <c r="AC124">
-        <v>-1.100485808545059</v>
+        <v>-0.8939773064814697</v>
       </c>
       <c r="AD124">
-        <v>-0.5823301764226679</v>
+        <v>-0.4324022657461027</v>
       </c>
       <c r="AE124">
-        <v>-0.4005212877922863</v>
+        <v>-0.2862750796606049</v>
       </c>
       <c r="AF124">
-        <v>-0.3095237940657204</v>
+        <v>-0.2190801356640499</v>
       </c>
       <c r="AN124">
         <v>0.8794520547945206</v>
@@ -15628,73 +15628,73 @@
         <v>421</v>
       </c>
       <c r="I137">
-        <v>0.1864822091369626</v>
+        <v>1.732533755546812</v>
       </c>
       <c r="J137">
-        <v>0.4316344599067078</v>
+        <v>4.556243427762626</v>
       </c>
       <c r="K137">
-        <v>0.580907394162846</v>
+        <v>7.631075574429096</v>
       </c>
       <c r="L137">
-        <v>0.702962999983144</v>
+        <v>9.182059590815255</v>
       </c>
       <c r="M137">
-        <v>0.8044600842639061</v>
+        <v>9.833871371994654</v>
       </c>
       <c r="N137">
-        <v>0.8659335786780304</v>
+        <v>10.70714404519683</v>
       </c>
       <c r="O137">
-        <v>0.8850826929132399</v>
+        <v>10.64367964868521</v>
       </c>
       <c r="P137">
-        <v>0.8484747808148306</v>
+        <v>9.878362818432031</v>
       </c>
       <c r="Q137">
-        <v>0.7638616105788922</v>
+        <v>8.950767823292937</v>
       </c>
       <c r="R137">
-        <v>0.6331699497282077</v>
+        <v>9.129320546541077</v>
       </c>
       <c r="S137">
-        <v>0.5105489601614408</v>
+        <v>9.075039557090575</v>
       </c>
       <c r="T137">
-        <v>0.4221847806587082</v>
+        <v>7.746109462381074</v>
       </c>
       <c r="U137">
-        <v>0.3445146618557949</v>
+        <v>6.316042418148188</v>
       </c>
       <c r="V137">
-        <v>0.2773615492488232</v>
+        <v>5.081481551117554</v>
       </c>
       <c r="W137">
-        <v>0.2256212413461886</v>
+        <v>4.13024274999505</v>
       </c>
       <c r="X137">
-        <v>0.1751858701250209</v>
+        <v>3.206968305236945</v>
       </c>
       <c r="Y137">
-        <v>0.1121874085005971</v>
+        <v>2.052599482704982</v>
       </c>
       <c r="Z137">
-        <v>0.06083746317705989</v>
+        <v>1.112050422912005</v>
       </c>
       <c r="AA137">
-        <v>0.03746521036465696</v>
+        <v>0.6848280788639789</v>
       </c>
       <c r="AB137">
-        <v>0.02789679611748362</v>
+        <v>0.5099266521033277</v>
       </c>
       <c r="AC137">
-        <v>0.02032159270827143</v>
+        <v>0.3714592059782018</v>
       </c>
       <c r="AD137">
-        <v>0.01539713008223803</v>
+        <v>0.2814447566584322</v>
       </c>
       <c r="AE137">
-        <v>0.01297223209551887</v>
+        <v>0.2371199493632732</v>
       </c>
       <c r="AN137">
         <v>0.5095890410958904</v>
@@ -15729,73 +15729,73 @@
         <v>422</v>
       </c>
       <c r="I138">
-        <v>0.1852582387408313</v>
+        <v>1.72087450730616</v>
       </c>
       <c r="J138">
-        <v>0.2353571104512202</v>
+        <v>2.363590419148886</v>
       </c>
       <c r="K138">
-        <v>0.2524253169181697</v>
+        <v>3.457780264640673</v>
       </c>
       <c r="L138">
-        <v>0.3933509395837017</v>
+        <v>5.137752219379724</v>
       </c>
       <c r="M138">
-        <v>0.4481650918343434</v>
+        <v>5.477710545240038</v>
       </c>
       <c r="N138">
-        <v>0.4808546895926777</v>
+        <v>5.945624494636707</v>
       </c>
       <c r="O138">
-        <v>0.4904388280534142</v>
+        <v>5.89803784789262</v>
       </c>
       <c r="P138">
-        <v>0.4626821266754049</v>
+        <v>5.3882879041351</v>
       </c>
       <c r="Q138">
-        <v>0.3990104046170165</v>
+        <v>4.671400127681345</v>
       </c>
       <c r="R138">
-        <v>0.3256640032538555</v>
+        <v>4.711433457560629</v>
       </c>
       <c r="S138">
-        <v>0.2674343214600378</v>
+        <v>4.753312260588714</v>
       </c>
       <c r="T138">
-        <v>0.2217682743551226</v>
+        <v>4.068915267059054</v>
       </c>
       <c r="U138">
-        <v>0.1819291573467813</v>
+        <v>3.335336350303717</v>
       </c>
       <c r="V138">
-        <v>0.1442823031029913</v>
+        <v>2.643395213182435</v>
       </c>
       <c r="W138">
-        <v>0.1164335546377377</v>
+        <v>2.131443130218343</v>
       </c>
       <c r="X138">
-        <v>0.08979179848103121</v>
+        <v>1.643736744255621</v>
       </c>
       <c r="Y138">
-        <v>0.04938591411234072</v>
+        <v>0.9036896000268259</v>
       </c>
       <c r="Z138">
-        <v>0.01668984189896474</v>
+        <v>0.3050742876648524</v>
       </c>
       <c r="AA138">
-        <v>0.004899921745251254</v>
+        <v>0.08956586557831749</v>
       </c>
       <c r="AB138">
-        <v>0.002396795873216619</v>
+        <v>0.0438111276383615</v>
       </c>
       <c r="AC138">
-        <v>0.002224239058780016</v>
+        <v>0.04065695472500226</v>
       </c>
       <c r="AD138">
-        <v>0.002233816276238827</v>
+        <v>0.04083201706602054</v>
       </c>
       <c r="AE138">
-        <v>0.001942366303072345</v>
+        <v>0.03550459134851151</v>
       </c>
       <c r="AN138">
         <v>0.5095890410958904</v>
@@ -15830,73 +15830,73 @@
         <v>423</v>
       </c>
       <c r="I139">
-        <v>0.001223970396131326</v>
+        <v>0.01165924824065213</v>
       </c>
       <c r="J139">
-        <v>0.1962773494554877</v>
+        <v>2.192653008613741</v>
       </c>
       <c r="K139">
-        <v>0.3284820772446763</v>
+        <v>4.173295309788423</v>
       </c>
       <c r="L139">
-        <v>0.3096120603994423</v>
+        <v>4.044307371435531</v>
       </c>
       <c r="M139">
-        <v>0.3562949924295626</v>
+        <v>4.356160826754616</v>
       </c>
       <c r="N139">
-        <v>0.3850788890853526</v>
+        <v>4.761519550560126</v>
       </c>
       <c r="O139">
-        <v>0.3946438648598258</v>
+        <v>4.745641800792591</v>
       </c>
       <c r="P139">
-        <v>0.3857926541394258</v>
+        <v>4.490074914296931</v>
       </c>
       <c r="Q139">
-        <v>0.3648512059618758</v>
+        <v>4.279367695611592</v>
       </c>
       <c r="R139">
-        <v>0.3075059464743522</v>
+        <v>4.417887088980446</v>
       </c>
       <c r="S139">
-        <v>0.2431146387014031</v>
+        <v>4.32172729650186</v>
       </c>
       <c r="T139">
-        <v>0.2004165063035855</v>
+        <v>3.67719419532202</v>
       </c>
       <c r="U139">
-        <v>0.1625855045090137</v>
+        <v>2.98070606784447</v>
       </c>
       <c r="V139">
-        <v>0.1330792461458319</v>
+        <v>2.43808633793512</v>
       </c>
       <c r="W139">
-        <v>0.1091876867084509</v>
+        <v>1.998799619776706</v>
       </c>
       <c r="X139">
-        <v>0.08539407164398971</v>
+        <v>1.563231560981324</v>
       </c>
       <c r="Y139">
-        <v>0.06280149438825641</v>
+        <v>1.148909882678156</v>
       </c>
       <c r="Z139">
-        <v>0.04414762127809514</v>
+        <v>0.8069761352471521</v>
       </c>
       <c r="AA139">
-        <v>0.0325652886194057</v>
+        <v>0.5952622132856614</v>
       </c>
       <c r="AB139">
-        <v>0.025500000244267</v>
+        <v>0.4661155244649662</v>
       </c>
       <c r="AC139">
-        <v>0.01809735364949142</v>
+        <v>0.3308022512531996</v>
       </c>
       <c r="AD139">
-        <v>0.0131633138059992</v>
+        <v>0.2406127395924116</v>
       </c>
       <c r="AE139">
-        <v>0.01102986579244653</v>
+        <v>0.2016153580147617</v>
       </c>
       <c r="AN139">
         <v>0.5095890410958904</v>
@@ -15931,64 +15931,64 @@
         <v>424</v>
       </c>
       <c r="I140">
-        <v>0.03914109591291076</v>
+        <v>0.4623939667388154</v>
       </c>
       <c r="J140">
-        <v>0.2479374488147126</v>
+        <v>3.115023044351405</v>
       </c>
       <c r="K140">
-        <v>0.3754737475656503</v>
+        <v>4.582638812681155</v>
       </c>
       <c r="L140">
-        <v>0.4599469817278332</v>
+        <v>5.477294248739597</v>
       </c>
       <c r="M140">
-        <v>0.528914123873588</v>
+        <v>6.051858623527907</v>
       </c>
       <c r="N140">
-        <v>0.5031799444580141</v>
+        <v>6.033894139294352</v>
       </c>
       <c r="O140">
-        <v>0.3831891712097492</v>
+        <v>6.345525007503173</v>
       </c>
       <c r="P140">
-        <v>0.358478955246677</v>
+        <v>6.53971049795063</v>
       </c>
       <c r="Q140">
-        <v>0.3426849131352223</v>
+        <v>6.283495606105295</v>
       </c>
       <c r="R140">
-        <v>0.3220304663100467</v>
+        <v>5.903836063736697</v>
       </c>
       <c r="S140">
-        <v>0.3009769305541178</v>
+        <v>5.510604054050964</v>
       </c>
       <c r="T140">
-        <v>0.2782452258287375</v>
+        <v>5.093582146091195</v>
       </c>
       <c r="U140">
-        <v>0.2502955168940852</v>
+        <v>4.581932258859646</v>
       </c>
       <c r="V140">
-        <v>0.2303794045179703</v>
+        <v>4.211804652515808</v>
       </c>
       <c r="W140">
-        <v>0.2135240136128515</v>
+        <v>3.903013985789857</v>
       </c>
       <c r="X140">
-        <v>0.1364758464011316</v>
+        <v>2.494647455400139</v>
       </c>
       <c r="Y140">
-        <v>0.09782351863763883</v>
+        <v>1.788120010118145</v>
       </c>
       <c r="Z140">
-        <v>0.05966967455133231</v>
+        <v>1.090704367910785</v>
       </c>
       <c r="AA140">
-        <v>0.04415083879995088</v>
+        <v>0.807034948457854</v>
       </c>
       <c r="AB140">
-        <v>0.03933333385856565</v>
+        <v>0.7189755829340758</v>
       </c>
       <c r="AN140">
         <v>0.1123287671232877</v>
@@ -16023,64 +16023,64 @@
         <v>425</v>
       </c>
       <c r="I141">
-        <v>0.03851675941368642</v>
+        <v>0.455018357453411</v>
       </c>
       <c r="J141">
-        <v>0.2453815981917306</v>
+        <v>3.082931400633062</v>
       </c>
       <c r="K141">
-        <v>0.3226427930393286</v>
+        <v>3.939311322438878</v>
       </c>
       <c r="L141">
-        <v>0.3492462266114451</v>
+        <v>4.160053767010249</v>
       </c>
       <c r="M141">
-        <v>0.3658185656321905</v>
+        <v>4.187099779787001</v>
       </c>
       <c r="N141">
-        <v>0.3300140481772599</v>
+        <v>3.956270733991747</v>
       </c>
       <c r="O141">
-        <v>0.2288923727002917</v>
+        <v>3.775731402614261</v>
       </c>
       <c r="P141">
-        <v>0.2182995217780524</v>
+        <v>3.983272477353863</v>
       </c>
       <c r="Q141">
-        <v>0.2152177020411522</v>
+        <v>3.946230865002031</v>
       </c>
       <c r="R141">
-        <v>0.2058695971843107</v>
+        <v>3.774240264315519</v>
       </c>
       <c r="S141">
-        <v>0.1957082051009355</v>
+        <v>3.583224087586029</v>
       </c>
       <c r="T141">
-        <v>0.1857203439768152</v>
+        <v>3.399813331670538</v>
       </c>
       <c r="U141">
-        <v>0.1719626964431603</v>
+        <v>3.147964597731172</v>
       </c>
       <c r="V141">
-        <v>0.1635790617908346</v>
+        <v>2.990544034348777</v>
       </c>
       <c r="W141">
-        <v>0.1417644571673869</v>
+        <v>2.591318183140952</v>
       </c>
       <c r="X141">
-        <v>0.08057536470765769</v>
+        <v>1.472840314505863</v>
       </c>
       <c r="Y141">
-        <v>0.05466923950778888</v>
+        <v>0.9993012157324533</v>
       </c>
       <c r="Z141">
-        <v>0.0119583773900888</v>
+        <v>0.2185876586485288</v>
       </c>
       <c r="AA141">
-        <v>0.003728129189920695</v>
+        <v>0.06814662258772795</v>
       </c>
       <c r="AB141">
-        <v>0.003046948397494522</v>
+        <v>0.05569529163573826</v>
       </c>
       <c r="AN141">
         <v>0.1123287671232877</v>
@@ -16115,64 +16115,64 @@
         <v>426</v>
       </c>
       <c r="I142">
-        <v>0.0006243364992243466</v>
+        <v>0.00737560928540442</v>
       </c>
       <c r="J142">
-        <v>0.00255585062298199</v>
+        <v>0.03209164371834245</v>
       </c>
       <c r="K142">
-        <v>0.05283095452632158</v>
+        <v>0.6433274902422774</v>
       </c>
       <c r="L142">
-        <v>0.1107007551163881</v>
+        <v>1.317240481729347</v>
       </c>
       <c r="M142">
-        <v>0.1630955582413976</v>
+        <v>1.864758843740905</v>
       </c>
       <c r="N142">
-        <v>0.1731658962807542</v>
+        <v>2.077623405302605</v>
       </c>
       <c r="O142">
-        <v>0.1542967985094575</v>
+        <v>2.569793604888911</v>
       </c>
       <c r="P142">
-        <v>0.1401794334686247</v>
+        <v>2.556438020596769</v>
       </c>
       <c r="Q142">
-        <v>0.1274672110940701</v>
+        <v>2.337264741103264</v>
       </c>
       <c r="R142">
-        <v>0.116160869125736</v>
+        <v>2.129595799421178</v>
       </c>
       <c r="S142">
-        <v>0.1052687254531822</v>
+        <v>1.927379966464934</v>
       </c>
       <c r="T142">
-        <v>0.0925248818519223</v>
+        <v>1.693768814420657</v>
       </c>
       <c r="U142">
-        <v>0.07833282045092503</v>
+        <v>1.433967661128474</v>
       </c>
       <c r="V142">
-        <v>0.06680034272713568</v>
+        <v>1.221260618167031</v>
       </c>
       <c r="W142">
-        <v>0.07175955644546458</v>
+        <v>1.311695802648905</v>
       </c>
       <c r="X142">
-        <v>0.05590048169347391</v>
+        <v>1.021807140894277</v>
       </c>
       <c r="Y142">
-        <v>0.04315427912984993</v>
+        <v>0.7888187943856919</v>
       </c>
       <c r="Z142">
-        <v>0.04771129716124351</v>
+        <v>0.8721167092622563</v>
       </c>
       <c r="AA142">
-        <v>0.04042270961003018</v>
+        <v>0.7388883258701259</v>
       </c>
       <c r="AB142">
-        <v>0.03628638546107113</v>
+        <v>0.6632802912983375</v>
       </c>
       <c r="AN142">
         <v>0.1123287671232877</v>
@@ -21466,61 +21466,61 @@
         <v>478</v>
       </c>
       <c r="I194">
-        <v>0.1687368701939752</v>
+        <v>1.993375732700136</v>
       </c>
       <c r="J194">
-        <v>0.3706231071394484</v>
+        <v>4.554778242928553</v>
       </c>
       <c r="K194">
-        <v>0.4979937276802585</v>
+        <v>6.140032697205387</v>
       </c>
       <c r="L194">
-        <v>0.6115072797053052</v>
+        <v>7.340773034722168</v>
       </c>
       <c r="M194">
-        <v>0.6779835990376618</v>
+        <v>7.871164318754772</v>
       </c>
       <c r="N194">
-        <v>0.682055759730932</v>
+        <v>8.017848577100619</v>
       </c>
       <c r="O194">
-        <v>0.6450576523379187</v>
+        <v>9.559509944877513</v>
       </c>
       <c r="P194">
-        <v>0.6377898080615212</v>
+        <v>11.3976446796215</v>
       </c>
       <c r="Q194">
-        <v>0.6733346392976837</v>
+        <v>12.35230293474081</v>
       </c>
       <c r="R194">
-        <v>0.7070494056752959</v>
+        <v>12.96244988215011</v>
       </c>
       <c r="S194">
-        <v>0.7191413551573843</v>
+        <v>13.17346549731794</v>
       </c>
       <c r="T194">
-        <v>0.7591364610247967</v>
+        <v>13.89682037780142</v>
       </c>
       <c r="U194">
-        <v>0.7704801836230665</v>
+        <v>14.10447958462038</v>
       </c>
       <c r="V194">
-        <v>0.5680155036432409</v>
+        <v>10.39200957179188</v>
       </c>
       <c r="W194">
-        <v>0.3073531545515329</v>
+        <v>5.618120606173651</v>
       </c>
       <c r="X194">
-        <v>0.1545504750467938</v>
+        <v>2.825034315399345</v>
       </c>
       <c r="Y194">
-        <v>0.07128960760214002</v>
+        <v>1.303105588943821</v>
       </c>
       <c r="Z194">
-        <v>0.03338068316917786</v>
+        <v>0.6101668428767287</v>
       </c>
       <c r="AA194">
-        <v>0.02158255114891953</v>
+        <v>0.394508315753146</v>
       </c>
       <c r="AN194">
         <v>0.4767123287671233</v>
@@ -21555,61 +21555,61 @@
         <v>479</v>
       </c>
       <c r="I195">
-        <v>0.1687368701939752</v>
+        <v>1.993375732700136</v>
       </c>
       <c r="J195">
-        <v>0.3706231071394484</v>
+        <v>4.554778242928553</v>
       </c>
       <c r="K195">
-        <v>0.4843097945763193</v>
+        <v>5.973431966588882</v>
       </c>
       <c r="L195">
-        <v>0.5647494858053529</v>
+        <v>6.781835592150193</v>
       </c>
       <c r="M195">
-        <v>0.6026343913966807</v>
+        <v>6.998113636503367</v>
       </c>
       <c r="N195">
-        <v>0.6008711160499042</v>
+        <v>7.0637910774773</v>
       </c>
       <c r="O195">
-        <v>0.5744298269210211</v>
+        <v>8.525891101261985</v>
       </c>
       <c r="P195">
-        <v>0.5759044926921553</v>
+        <v>10.29331739185855</v>
       </c>
       <c r="Q195">
-        <v>0.6132699277504912</v>
+        <v>11.25038794471983</v>
       </c>
       <c r="R195">
-        <v>0.6479366886944815</v>
+        <v>11.87872698370612</v>
       </c>
       <c r="S195">
-        <v>0.6617030373962604</v>
+        <v>12.12127794807816</v>
       </c>
       <c r="T195">
-        <v>0.712065923918871</v>
+        <v>13.03514288919201</v>
       </c>
       <c r="U195">
-        <v>0.7366394424270658</v>
+        <v>13.48498793061969</v>
       </c>
       <c r="V195">
-        <v>0.5431729991771582</v>
+        <v>9.937551793493023</v>
       </c>
       <c r="W195">
-        <v>0.2894486456071467</v>
+        <v>5.290843370998858</v>
       </c>
       <c r="X195">
-        <v>0.1413866721926197</v>
+        <v>2.584412636475783</v>
       </c>
       <c r="Y195">
-        <v>0.06307530573744564</v>
+        <v>1.152956036586998</v>
       </c>
       <c r="Z195">
-        <v>0.02854161433272045</v>
+        <v>0.5217133100523704</v>
       </c>
       <c r="AA195">
-        <v>0.01757073575888508</v>
+        <v>0.3211761817660906</v>
       </c>
       <c r="AN195">
         <v>0.4767123287671233</v>
@@ -21650,55 +21650,55 @@
         <v>0</v>
       </c>
       <c r="K196">
-        <v>0.01368393310393919</v>
+        <v>0.1666007306165057</v>
       </c>
       <c r="L196">
-        <v>0.04675779389995228</v>
+        <v>0.5589374425719748</v>
       </c>
       <c r="M196">
-        <v>0.07534920764098113</v>
+        <v>0.8730506822514041</v>
       </c>
       <c r="N196">
-        <v>0.08118464368102785</v>
+        <v>0.9540574996233173</v>
       </c>
       <c r="O196">
-        <v>0.07062782541689759</v>
+        <v>1.033618843615527</v>
       </c>
       <c r="P196">
-        <v>0.06188531536936583</v>
+        <v>1.104327287762949</v>
       </c>
       <c r="Q196">
-        <v>0.06006471154719255</v>
+        <v>1.101914990020979</v>
       </c>
       <c r="R196">
-        <v>0.05911271698081431</v>
+        <v>1.083722898443986</v>
       </c>
       <c r="S196">
-        <v>0.05743831776112392</v>
+        <v>1.052187549239785</v>
       </c>
       <c r="T196">
-        <v>0.04707053710592563</v>
+        <v>0.8616774886094142</v>
       </c>
       <c r="U196">
-        <v>0.03384074119600066</v>
+        <v>0.6194916540006957</v>
       </c>
       <c r="V196">
-        <v>0.02484250446608282</v>
+        <v>0.4544577782988546</v>
       </c>
       <c r="W196">
-        <v>0.01790450894438623</v>
+        <v>0.3272772351747936</v>
       </c>
       <c r="X196">
-        <v>0.01316380285417411</v>
+        <v>0.2406216789235628</v>
       </c>
       <c r="Y196">
-        <v>0.008214301864694377</v>
+        <v>0.1501495523568231</v>
       </c>
       <c r="Z196">
-        <v>0.004839068836457408</v>
+        <v>0.08845353282435839</v>
       </c>
       <c r="AA196">
-        <v>0.004011815390034454</v>
+        <v>0.07333213398705536</v>
       </c>
       <c r="AN196">
         <v>0.4767123287671233</v>
@@ -25109,6 +25109,81 @@
       <c r="H231" t="s">
         <v>515</v>
       </c>
+      <c r="I231">
+        <v>4411.150281931214</v>
+      </c>
+      <c r="J231">
+        <v>29117.19114455441</v>
+      </c>
+      <c r="K231">
+        <v>63991.21535105744</v>
+      </c>
+      <c r="L231">
+        <v>90607.76357829935</v>
+      </c>
+      <c r="M231">
+        <v>135553.8572766871</v>
+      </c>
+      <c r="N231">
+        <v>173675.775908897</v>
+      </c>
+      <c r="O231">
+        <v>197998.0394816197</v>
+      </c>
+      <c r="P231">
+        <v>189305.6867125086</v>
+      </c>
+      <c r="Q231">
+        <v>148957.0536280384</v>
+      </c>
+      <c r="R231">
+        <v>61453.89144307786</v>
+      </c>
+      <c r="S231">
+        <v>46433.41787220883</v>
+      </c>
+      <c r="T231">
+        <v>39421.10088187508</v>
+      </c>
+      <c r="U231">
+        <v>24771.2597422901</v>
+      </c>
+      <c r="V231">
+        <v>13992.69392093013</v>
+      </c>
+      <c r="W231">
+        <v>6584.399216056231</v>
+      </c>
+      <c r="X231">
+        <v>3614.870135315919</v>
+      </c>
+      <c r="Y231">
+        <v>2573.075595978929</v>
+      </c>
+      <c r="Z231">
+        <v>1869.469869001743</v>
+      </c>
+      <c r="AA231">
+        <v>1501.47372958973</v>
+      </c>
+      <c r="AB231">
+        <v>1516.175215025892</v>
+      </c>
+      <c r="AC231">
+        <v>1007.722083458031</v>
+      </c>
+      <c r="AD231">
+        <v>2.867626688064947</v>
+      </c>
+      <c r="AE231">
+        <v>1.296931149147503</v>
+      </c>
+      <c r="AF231">
+        <v>0.3634171642142651</v>
+      </c>
+      <c r="AG231">
+        <v>0.3076235272221863</v>
+      </c>
       <c r="AN231">
         <v>0.6657534246575343</v>
       </c>
@@ -25141,6 +25216,81 @@
       <c r="H232" t="s">
         <v>516</v>
       </c>
+      <c r="I232">
+        <v>-4267.898635555865</v>
+      </c>
+      <c r="J232">
+        <v>-28538.5802323462</v>
+      </c>
+      <c r="K232">
+        <v>-63053.20276123494</v>
+      </c>
+      <c r="L232">
+        <v>-89517.21436508266</v>
+      </c>
+      <c r="M232">
+        <v>-134280.3610813999</v>
+      </c>
+      <c r="N232">
+        <v>-172296.1917430011</v>
+      </c>
+      <c r="O232">
+        <v>-196601.9831733164</v>
+      </c>
+      <c r="P232">
+        <v>-187996.1657541521</v>
+      </c>
+      <c r="Q232">
+        <v>-147804.2177189829</v>
+      </c>
+      <c r="R232">
+        <v>-60608.00050323258</v>
+      </c>
+      <c r="S232">
+        <v>-45703.06366305411</v>
+      </c>
+      <c r="T232">
+        <v>-38787.03193497263</v>
+      </c>
+      <c r="U232">
+        <v>-24284.54074968219</v>
+      </c>
+      <c r="V232">
+        <v>-13641.1890436034</v>
+      </c>
+      <c r="W232">
+        <v>-6342.511031211508</v>
+      </c>
+      <c r="X232">
+        <v>-3433.670362711918</v>
+      </c>
+      <c r="Y232">
+        <v>-2427.777289060226</v>
+      </c>
+      <c r="Z232">
+        <v>-1749.402740239472</v>
+      </c>
+      <c r="AA232">
+        <v>-1396.916266018093</v>
+      </c>
+      <c r="AB232">
+        <v>-1419.019548171197</v>
+      </c>
+      <c r="AC232">
+        <v>-940.0745832314225</v>
+      </c>
+      <c r="AD232">
+        <v>19.1932181289684</v>
+      </c>
+      <c r="AE232">
+        <v>12.81528316552896</v>
+      </c>
+      <c r="AF232">
+        <v>9.81226743867669</v>
+      </c>
+      <c r="AG232">
+        <v>8.664206648979745</v>
+      </c>
       <c r="AN232">
         <v>0.6657534246575343</v>
       </c>
@@ -29620,73 +29770,73 @@
         <v>562</v>
       </c>
       <c r="I278">
-        <v>0.1013570568818711</v>
+        <v>0.9655029981630525</v>
       </c>
       <c r="J278">
-        <v>0.4219162407267967</v>
+        <v>4.640852772592446</v>
       </c>
       <c r="K278">
-        <v>0.9173146317900498</v>
+        <v>12.846186748029</v>
       </c>
       <c r="L278">
-        <v>1.460352676609247</v>
+        <v>18.21855823317476</v>
       </c>
       <c r="M278">
-        <v>1.59641847419785</v>
+        <v>19.68857273908666</v>
       </c>
       <c r="N278">
-        <v>1.737082551926572</v>
+        <v>21.34830707431094</v>
       </c>
       <c r="O278">
-        <v>1.834086389415082</v>
+        <v>21.9601213894183</v>
       </c>
       <c r="P278">
-        <v>1.974624265537969</v>
+        <v>22.78698809574154</v>
       </c>
       <c r="Q278">
-        <v>1.960993724378473</v>
+        <v>23.23392315178252</v>
       </c>
       <c r="R278">
-        <v>1.699073500991254</v>
+        <v>26.18508252253614</v>
       </c>
       <c r="S278">
-        <v>1.673037792830761</v>
+        <v>30.16660656590319</v>
       </c>
       <c r="T278">
-        <v>1.681991322186071</v>
+        <v>30.8507232073152</v>
       </c>
       <c r="U278">
-        <v>1.62230427614206</v>
+        <v>29.74196386319658</v>
       </c>
       <c r="V278">
-        <v>1.524685569658203</v>
+        <v>27.92461004207385</v>
       </c>
       <c r="W278">
-        <v>1.410235803714745</v>
+        <v>25.81590354402447</v>
       </c>
       <c r="X278">
-        <v>1.027036888571176</v>
+        <v>18.80102971550393</v>
       </c>
       <c r="Y278">
-        <v>0.5492155014535259</v>
+        <v>10.0464965864079</v>
       </c>
       <c r="Z278">
-        <v>0.2986086055643635</v>
+        <v>5.458278645455223</v>
       </c>
       <c r="AA278">
-        <v>0.19053483365094</v>
+        <v>3.482793845698877</v>
       </c>
       <c r="AB278">
-        <v>0.1300669503032656</v>
+        <v>2.377498987271405</v>
       </c>
       <c r="AC278">
-        <v>0.06884841654546961</v>
+        <v>1.258482959971301</v>
       </c>
       <c r="AD278">
-        <v>0.03882314151036413</v>
+        <v>0.7096497565936062</v>
       </c>
       <c r="AE278">
-        <v>0.03256932068901664</v>
+        <v>0.5953359156473625</v>
       </c>
       <c r="AN278">
         <v>0.3342465753424658</v>
@@ -29721,73 +29871,73 @@
         <v>563</v>
       </c>
       <c r="I279">
-        <v>0.1013570568818711</v>
+        <v>0.9655029981630525</v>
       </c>
       <c r="J279">
-        <v>0.3510508717248213</v>
+        <v>3.848510795126693</v>
       </c>
       <c r="K279">
-        <v>0.6191357587069726</v>
+        <v>8.589244844886306</v>
       </c>
       <c r="L279">
-        <v>1.030407307003759</v>
+        <v>12.79486111429965</v>
       </c>
       <c r="M279">
-        <v>0.9931942218625855</v>
+        <v>12.20907510605532</v>
       </c>
       <c r="N279">
-        <v>0.8935720226017262</v>
+        <v>10.99365349737322</v>
       </c>
       <c r="O279">
-        <v>0.9047087032849573</v>
+        <v>10.83194271716716</v>
       </c>
       <c r="P279">
-        <v>0.9963162913943807</v>
+        <v>11.4945610942524</v>
       </c>
       <c r="Q279">
-        <v>1.013192637126747</v>
+        <v>12.00771056218322</v>
       </c>
       <c r="R279">
-        <v>0.8818945058464028</v>
+        <v>13.58669210155592</v>
       </c>
       <c r="S279">
-        <v>0.884920207695215</v>
+        <v>15.96191262680933</v>
       </c>
       <c r="T279">
-        <v>0.8906346427936038</v>
+        <v>16.33588669478525</v>
       </c>
       <c r="U279">
-        <v>0.8526953531283874</v>
+        <v>15.63260034015923</v>
       </c>
       <c r="V279">
-        <v>0.8000933811644195</v>
+        <v>14.6537052933822</v>
       </c>
       <c r="W279">
-        <v>0.7424592935764714</v>
+        <v>13.59152664954731</v>
       </c>
       <c r="X279">
-        <v>0.5161596953622738</v>
+        <v>9.448865837674369</v>
       </c>
       <c r="Y279">
-        <v>0.2315481244166809</v>
+        <v>4.236047167661109</v>
       </c>
       <c r="Z279">
-        <v>0.08408083952171505</v>
+        <v>1.53691702885101</v>
       </c>
       <c r="AA279">
-        <v>0.03536677357629294</v>
+        <v>0.6464706688720017</v>
       </c>
       <c r="AB279">
-        <v>0.01711716749279298</v>
+        <v>0.3128853892874626</v>
       </c>
       <c r="AC279">
-        <v>0.01054450513810365</v>
+        <v>0.1927434311996021</v>
       </c>
       <c r="AD279">
-        <v>0.007073472793486437</v>
+        <v>0.1292962921310503</v>
       </c>
       <c r="AE279">
-        <v>0.005653673346442719</v>
+        <v>0.1033437212465603</v>
       </c>
       <c r="AN279">
         <v>0.3342465753424658</v>
@@ -29825,70 +29975,70 @@
         <v>0</v>
       </c>
       <c r="J280">
-        <v>0.0708653690019754</v>
+        <v>0.7923419774657516</v>
       </c>
       <c r="K280">
-        <v>0.2981788730830773</v>
+        <v>4.256941903142696</v>
       </c>
       <c r="L280">
-        <v>0.4299453696054879</v>
+        <v>5.423697118875112</v>
       </c>
       <c r="M280">
-        <v>0.6032242523352643</v>
+        <v>7.479497633031337</v>
       </c>
       <c r="N280">
-        <v>0.8435105293248457</v>
+        <v>10.35465357693772</v>
       </c>
       <c r="O280">
-        <v>0.9293776861301247</v>
+        <v>11.12817867225114</v>
       </c>
       <c r="P280">
-        <v>0.9783079741435878</v>
+        <v>11.29242700148913</v>
       </c>
       <c r="Q280">
-        <v>0.9478010872517251</v>
+        <v>11.2262125895993</v>
       </c>
       <c r="R280">
-        <v>0.817178995144851</v>
+        <v>12.59839042098022</v>
       </c>
       <c r="S280">
-        <v>0.788117585135546</v>
+        <v>14.20469393909386</v>
       </c>
       <c r="T280">
-        <v>0.7913566793924679</v>
+        <v>14.51483651252995</v>
       </c>
       <c r="U280">
-        <v>0.7696089230136731</v>
+        <v>14.10936352303735</v>
       </c>
       <c r="V280">
-        <v>0.7245921884937835</v>
+        <v>13.27090474869165</v>
       </c>
       <c r="W280">
-        <v>0.6677765101382741</v>
+        <v>12.22437689447716</v>
       </c>
       <c r="X280">
-        <v>0.5108771932089027</v>
+        <v>9.352163877829563</v>
       </c>
       <c r="Y280">
-        <v>0.3176673770368451</v>
+        <v>5.810449418746788</v>
       </c>
       <c r="Z280">
-        <v>0.2145277660426485</v>
+        <v>3.921361616604212</v>
       </c>
       <c r="AA280">
-        <v>0.155168060074647</v>
+        <v>2.836323176826875</v>
       </c>
       <c r="AB280">
-        <v>0.1129497828104727</v>
+        <v>2.064613597983942</v>
       </c>
       <c r="AC280">
-        <v>0.05830391140736597</v>
+        <v>1.065739528771699</v>
       </c>
       <c r="AD280">
-        <v>0.03174966871687769</v>
+        <v>0.5803534644625559</v>
       </c>
       <c r="AE280">
-        <v>0.02691564734257392</v>
+        <v>0.4919921944008023</v>
       </c>
       <c r="AN280">
         <v>0.3342465753424658</v>
